--- a/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>KIND</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E8" s="3">
         <v>51000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>192200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,20 +744,23 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="3">
         <v>9100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28800</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,20 +776,23 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E10" s="3">
         <v>41900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>163400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,20 +824,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E12" s="3">
         <v>29000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>97100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,49 +963,53 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E17" s="3">
         <v>84200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>284300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-33200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-92100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,20 +1041,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,20 +1071,23 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-31600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-78100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1135,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-82200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1133,11 +1179,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-82400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-82400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,20 +1423,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,37 +1455,43 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-82400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-82400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,49 +1618,53 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E41" s="3">
         <v>208000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>521800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>626100</v>
+      </c>
+      <c r="E42" s="3">
         <v>503900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>194000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,20 +1680,23 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E43" s="3">
         <v>22100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,66 +1744,75 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>719700</v>
+      </c>
+      <c r="E46" s="3">
         <v>745700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>761700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1723,32 +1828,35 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>416300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E48" s="3">
         <v>70600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,20 +1872,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E49" s="3">
         <v>5600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,25 +1983,28 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>416700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>416800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>793200</v>
+      </c>
+      <c r="E54" s="3">
         <v>822200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>840100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>417900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>418500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>419300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,37 +2094,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,66 +2156,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E59" s="3">
         <v>31300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E60" s="3">
         <v>34800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,37 +2252,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E62" s="3">
         <v>59700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>61600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E66" s="3">
         <v>94500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>95100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-550100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-513300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-480300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>701500</v>
+      </c>
+      <c r="E76" s="3">
         <v>727700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>745000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>391200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>387200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>404000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-82400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-311500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>266800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-425300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3337,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>218900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>418800</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-313800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>436500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>KIND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E8" s="3">
         <v>54500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>192200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,23 +751,26 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
         <v>10200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,23 +786,26 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E10" s="3">
         <v>44300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>163400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,23 +838,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E12" s="3">
         <v>32700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>97100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,55 +990,59 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E17" s="3">
         <v>92800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>84200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>284300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-38300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-33200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-92100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1058,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,23 +1075,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,23 +1108,26 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-35400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-31600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-78100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,55 +1178,61 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-82200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-82400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-32900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-82400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,23 +1493,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1458,40 +1528,46 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-32900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-82400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13700</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-32900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-82400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13700</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,55 +1705,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E41" s="3">
         <v>40200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>208000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>521800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>513700</v>
+      </c>
+      <c r="E42" s="3">
         <v>626100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>503900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>194000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1683,23 +1773,26 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E43" s="3">
         <v>26200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,72 +1843,81 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E45" s="3">
         <v>27200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
       </c>
       <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>641700</v>
+      </c>
+      <c r="E46" s="3">
         <v>719700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>745700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>761700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1831,35 +1936,38 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>416300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E48" s="3">
         <v>68100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>70600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,23 +1983,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E49" s="3">
         <v>5200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,13 +2088,16 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -1986,25 +2106,28 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>416700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>416800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>713900</v>
+      </c>
+      <c r="E54" s="3">
         <v>793200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>822200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>840100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>417900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>418500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>419300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,40 +2225,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,72 +2293,81 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E59" s="3">
         <v>28600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E60" s="3">
         <v>33900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,40 +2398,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E62" s="3">
         <v>57800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>59700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>61600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E66" s="3">
         <v>91700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>95100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-584800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-550100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-513300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-480300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E76" s="3">
         <v>701500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>727700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>745000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>391200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>387200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>404000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-32900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-82400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13700</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-124100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-311500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>266800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-425300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>218900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>418800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-167800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-313800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>436500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>KIND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,83 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E8" s="3">
         <v>54000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>192200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -754,8 +757,11 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -763,17 +769,17 @@
         <v>9900</v>
       </c>
       <c r="E9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F9" s="3">
         <v>10200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,26 +795,29 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E10" s="3">
         <v>44100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>163400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,26 +851,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E12" s="3">
         <v>33400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>97100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,43 +1016,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E17" s="3">
         <v>90300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>84200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>284300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,17 +1064,17 @@
         <v>-36300</v>
       </c>
       <c r="E18" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-38300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-92100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,26 +1108,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,26 +1144,29 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-35400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-78100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,61 +1220,67 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-82200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1251,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-82400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-32900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-82400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,26 +1562,29 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,43 +1600,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-32900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-82400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-32900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-82400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,61 +1791,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E41" s="3">
         <v>90700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>208000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>521800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>528100</v>
+      </c>
+      <c r="E42" s="3">
         <v>513700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>626100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>503900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>194000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,26 +1865,29 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E43" s="3">
         <v>27000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,78 +1941,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>10300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>625300</v>
+      </c>
+      <c r="E46" s="3">
         <v>641700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>719700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>745700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>761700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1939,38 +2043,41 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>416300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E48" s="3">
         <v>66900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,26 +2093,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,16 +2207,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2109,25 +2228,28 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>416700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>416800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2283,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>699600</v>
+      </c>
+      <c r="E54" s="3">
         <v>713900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>793200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>822200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>840100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>417900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>418500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>419300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2355,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,78 +2429,87 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E59" s="3">
         <v>28200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E60" s="3">
         <v>34600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,43 +2543,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E62" s="3">
         <v>55800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>57800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>31100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2695,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E66" s="3">
         <v>90500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2901,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-618300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-584800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-550100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-513300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-480300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3053,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>611100</v>
+      </c>
+      <c r="E76" s="3">
         <v>623500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>701500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>727700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>745000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>391200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>387200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>404000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-32900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-82400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3040,34 +3238,37 @@
         <v>1500</v>
       </c>
       <c r="E83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>110200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-124100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-311500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>266800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-425300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3828,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-47300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>218900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>418800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E102" s="3">
         <v>50500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-167800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-313800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>436500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>KIND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E8" s="3">
         <v>53300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>192200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,8 +764,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,17 +779,17 @@
         <v>9900</v>
       </c>
       <c r="F9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G9" s="3">
         <v>10200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,29 +805,32 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E10" s="3">
         <v>43400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>163400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,29 +865,30 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E12" s="3">
         <v>32000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>97100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,67 +1043,71 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E17" s="3">
         <v>89600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>84200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>284300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-36300</v>
+        <v>-38800</v>
       </c>
       <c r="E18" s="3">
         <v>-36300</v>
       </c>
       <c r="F18" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-38300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-92100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,29 +1142,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,29 +1181,32 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-78100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,67 +1263,73 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-82200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-82400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-82400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,29 +1632,32 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,46 +1673,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-82400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-82400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,67 +1878,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E41" s="3">
         <v>55200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>208000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>521800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E42" s="3">
         <v>528100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>513700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>626100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>503900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>194000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,29 +1958,32 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E43" s="3">
         <v>29800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,143 +2040,155 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
       </c>
       <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>614100</v>
+      </c>
+      <c r="E46" s="3">
         <v>625300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>641700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>719700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>745700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>761700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>416300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E48" s="3">
         <v>64400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,29 +2204,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,19 +2327,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2231,25 +2351,28 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>416700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>416800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,46 +2409,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>694800</v>
+      </c>
+      <c r="E54" s="3">
         <v>699600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>713900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>793200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>822200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>840100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>417900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>418500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>419300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,46 +2486,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,84 +2566,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E59" s="3">
         <v>30100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E60" s="3">
         <v>34700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,46 +2689,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E62" s="3">
         <v>53800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>57800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>59700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>61600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>31100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E66" s="3">
         <v>88500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,46 +3075,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-652000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-618300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-584800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-550100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-513300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-480300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,46 +3239,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>596400</v>
+      </c>
+      <c r="E76" s="3">
         <v>611100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>623500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>701500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>727700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>745000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>391200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>387200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>404000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-82400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,34 +3440,37 @@
         <v>1500</v>
       </c>
       <c r="F83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="I91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>110200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-124100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-311500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>266800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-425300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,118 +4074,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>218900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>418800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-167800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-313800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>436500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E8" s="3">
         <v>49800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>53300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>54500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>192200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,13 +771,16 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="E9" s="3">
         <v>9900</v>
@@ -782,17 +789,17 @@
         <v>9900</v>
       </c>
       <c r="G9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H9" s="3">
         <v>10200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,32 +815,35 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E10" s="3">
         <v>39900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>43400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>163400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,32 +879,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E12" s="3">
         <v>33000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>97100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,73 +1070,77 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E17" s="3">
         <v>88600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>89600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>84200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>284300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-38800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-36300</v>
       </c>
       <c r="F18" s="3">
         <v>-36300</v>
       </c>
       <c r="G18" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-38300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-92100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,32 +1176,33 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,32 +1218,35 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-31600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-78100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,73 +1306,79 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-32900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-82200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-82400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-32900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-82400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,32 +1702,35 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,49 +1746,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-32900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-82400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-32900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-82400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,73 +1965,77 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E41" s="3">
         <v>67800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>208000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>521800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>477300</v>
+      </c>
+      <c r="E42" s="3">
         <v>507000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>528100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>513700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>626100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>503900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>194000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,32 +2051,35 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E43" s="3">
         <v>28000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,90 +2139,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
       <c r="L45" s="3">
+        <v>700</v>
+      </c>
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>592100</v>
+      </c>
+      <c r="E46" s="3">
         <v>614100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>625300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>641700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>719700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>745700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>761700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2151,47 +2256,50 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>416300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E48" s="3">
         <v>71200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,32 +2315,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,22 +2447,25 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2354,25 +2474,28 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>416700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>416800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E54" s="3">
         <v>694800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>699600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>713900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>793200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>822200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>840100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>417900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>418500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>419300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,49 +2617,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,90 +2703,99 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E59" s="3">
         <v>28200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E60" s="3">
         <v>33200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,49 +2835,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E62" s="3">
         <v>65100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>57800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>59700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>61600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E66" s="3">
         <v>98400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>88500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>90500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-687400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-652000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-618300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-584800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-550100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-513300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-480300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>583100</v>
+      </c>
+      <c r="E76" s="3">
         <v>596400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>611100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>623500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>701500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>727700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>745000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>391200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>387200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>404000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-32900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-82400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3443,34 +3642,37 @@
         <v>1500</v>
       </c>
       <c r="G83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3741,40 +3962,43 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E94" s="3">
         <v>24700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>110200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-124100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-311500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>266800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-425300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-47300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>218900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>418800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4127,77 +4376,83 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E102" s="3">
         <v>12600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-167800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-313800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>436500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E8" s="3">
         <v>56900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>54000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>54500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>192200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,16 +778,19 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E9" s="3">
         <v>10400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9900</v>
       </c>
       <c r="F9" s="3">
         <v>9900</v>
@@ -792,17 +799,17 @@
         <v>9900</v>
       </c>
       <c r="H9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I9" s="3">
         <v>10200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,35 +825,38 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E10" s="3">
         <v>46500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>163400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,35 +893,36 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E12" s="3">
         <v>37100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>97100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,79 +1097,83 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E17" s="3">
         <v>98300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>88600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>89600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>92800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>84200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>284300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-36300</v>
       </c>
       <c r="G18" s="3">
         <v>-36300</v>
       </c>
       <c r="H18" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-38300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-92100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,35 +1210,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,35 +1255,38 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-33800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-31600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-78100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,79 +1349,85 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-32900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-82200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-32900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-82400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-32900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-82400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,35 +1772,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-32900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-82400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-32900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-82400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,79 +2052,83 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E41" s="3">
         <v>74300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>208000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>521800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>491300</v>
+      </c>
+      <c r="E42" s="3">
         <v>477300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>507000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>528100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>513700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>626100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>503900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>194000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,35 +2144,38 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E43" s="3">
         <v>28400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,96 +2238,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>580800</v>
+      </c>
+      <c r="E46" s="3">
         <v>592100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>614100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>625300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>641700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>719700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>745700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>761700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2259,50 +2364,53 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>416300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E48" s="3">
         <v>69200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>71200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>70600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>72000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,35 +2426,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,25 +2567,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2477,25 +2597,28 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>416700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>416800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>670100</v>
+      </c>
+      <c r="E54" s="3">
         <v>684000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>694800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>699600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>713900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>793200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>822200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>840100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>417900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>418500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>419300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,96 +2840,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E59" s="3">
         <v>31100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E60" s="3">
         <v>37100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,52 +2981,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E62" s="3">
         <v>63900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>57800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>59700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>61600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E66" s="3">
         <v>101000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>98400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>88500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>94500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-725500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-687400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-652000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-618300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-584800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-550100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-513300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-480300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>573200</v>
+      </c>
+      <c r="E76" s="3">
         <v>583100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>596400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>611100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>623500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>701500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>727700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>745000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>391200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>387200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>404000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-32900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-82400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3645,34 +3844,37 @@
         <v>1500</v>
       </c>
       <c r="H83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-49500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,40 +4186,43 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E94" s="3">
         <v>28000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>24700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>110200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-124100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-311500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>266800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-425300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>218900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>418800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4379,80 +4628,86 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E102" s="3">
         <v>17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-167800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-313800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>436500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
